--- a/p_values_MLP_vs_Random_Forest.xlsx
+++ b/p_values_MLP_vs_Random_Forest.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accuracy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sensitivity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specificity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.138832055243895e-09</v>
+        <v>2.30139779908113e-09</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +460,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.646792498320533e-10</v>
+        <v>1.188933372688412e-10</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.092648027954766e-11</v>
+        <v>3.606548095077807e-12</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +480,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.077832542219114e-07</v>
+        <v>6.239637801992397e-09</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +490,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.747274145445434e-09</v>
+        <v>7.162262058079306e-10</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +500,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003539445379737783</v>
+        <v>0.1072369735431254</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +510,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999939485098436</v>
+        <v>0.01241535982206754</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +520,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006308752792865745</v>
+        <v>0.2917279962034725</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +530,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.412426835480595e-13</v>
+        <v>1.236418070849513e-10</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +540,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000570958546462654</v>
+        <v>0.2702454297936202</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +550,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003336903428935996</v>
+        <v>0.0007566702972489964</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +560,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4552863167783949</v>
+        <v>0.2857145822420153</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7848490705792127</v>
+        <v>0.2243928592985632</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +580,505 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.026183251141387e-05</v>
+        <v>2.98306233765919e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.017215216596905e-13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.610419467174389e-15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.262913025914989e-17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8.202840295070639e-10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.052792607546388e-10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5.738774285625832e-10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.957851500661587e-05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.460325657726105e-07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.592969568123405e-15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0001187551330584871</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.164409843730472e-11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.47205854772984e-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5.278522906968855e-10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.104980418343948e-13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.938853557843373e-08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.928445705086238e-08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.791804769881151e-05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1446832387442525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0587266063329086</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.256413503371835e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.329876800921125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.78835411318741e-05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.016379581533686e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0209917286647498</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.603811370108935e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0003950644650194238</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3.216802399645117e-08</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.123877389144112e-06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.217176067970694e-17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.217176067970694e-17</v>
       </c>
     </row>
   </sheetData>
